--- a/results/example3/example3.xlsx
+++ b/results/example3/example3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,10 @@
       <c r="B14" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="4" t="s">

--- a/results/example3/example3.xlsx
+++ b/results/example3/example3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="185">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -290,9 +290,6 @@
     <t>GROUND_freeW_seb</t>
   </si>
   <si>
-    <t>SNOW_crocus_bucketW_seb</t>
-  </si>
-  <si>
     <t>TILE_IDENTIFICATION</t>
   </si>
   <si>
@@ -527,15 +524,6 @@
     <t xml:space="preserve">lateral contact length of water reservoir, needs to be adjusted to fit the area and geometry of the model realization  </t>
   </si>
   <si>
-    <t>LAT_REMOVE_SURFACE_WATER</t>
-  </si>
-  <si>
-    <t>NO_PARAMERTERS_REQUIRED</t>
-  </si>
-  <si>
-    <t>LAT_REMOVE_SUBSURFACE_WATER</t>
-  </si>
-  <si>
     <t>list of LATERAL INTERACTION classes to be used for the run, must be initialized below</t>
   </si>
   <si>
@@ -567,6 +555,30 @@
   </si>
   <si>
     <t>height at which air temperature is provided</t>
+  </si>
+  <si>
+    <t>SNOW_crocus2_bucketW_seb</t>
+  </si>
+  <si>
+    <t>SW_extinction</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>[1/m]</t>
+  </si>
+  <si>
+    <t>SW extinction coefficient</t>
+  </si>
+  <si>
+    <t>threshold_water</t>
+  </si>
+  <si>
+    <t>next_season_lake_class</t>
+  </si>
+  <si>
+    <t>LAKE_simple_unfrozen_bucketW_seb</t>
   </si>
 </sst>
 </file>
@@ -909,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,13 +947,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -949,152 +961,149 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>103</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>105</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>107</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>109</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>111</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>113</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>0.25</v>
@@ -1102,7 +1111,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1138,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1146,7 +1155,7 @@
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1169,7 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,7 +1183,7 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,10 +1220,10 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,7 +1290,7 @@
         <v>32</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>-140</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
@@ -1298,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1335,7 @@
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1363,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,12 +1427,12 @@
         <v>0.05</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B54">
         <v>0.1</v>
@@ -1496,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
@@ -1507,28 +1516,28 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
@@ -1539,253 +1548,253 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" s="4">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" t="s">
-        <v>134</v>
+      <c r="G81" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>0.3</v>
-      </c>
-      <c r="C83">
-        <v>0.5</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0.3</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C84">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D84">
+        <v>0.1</v>
+      </c>
+      <c r="E84">
         <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0.5</v>
       </c>
       <c r="F84">
         <v>0.3</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="B85">
         <v>0.5</v>
       </c>
       <c r="C85">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0.3</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>30</v>
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>0.03</v>
+      </c>
+      <c r="C86">
+        <v>0.97</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.3</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="B99">
         <v>-1</v>
@@ -1793,144 +1802,143 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>5000</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="6"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B108" s="7">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
+      <c r="A109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="7">
+        <v>1</v>
+      </c>
       <c r="C109" s="6"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C111" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="C111" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="6">
-        <v>0.99</v>
+        <v>0.15</v>
       </c>
       <c r="C112" s="6">
-        <v>0.99</v>
+        <v>0.15</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B114" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C114" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>6</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-    </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="B115" s="6"/>
       <c r="C115" s="6"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116">
-        <v>0.1</v>
+        <v>79</v>
+      </c>
+      <c r="B116" s="9">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>0.1</v>
@@ -1939,29 +1947,29 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118">
+        <v>0.1</v>
+      </c>
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
         <v>0.5</v>
       </c>
-      <c r="C118" s="6"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
       <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="6">
-        <v>1000</v>
-      </c>
+      <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B121" s="6">
         <v>1000</v>
@@ -1970,490 +1978,503 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B122" s="6">
-        <v>-40</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>0</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="C122" s="6"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C123" s="6">
-        <v>3600</v>
-      </c>
-      <c r="D123" t="s">
-        <v>7</v>
+        <v>-40</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124" s="6">
-        <v>0.97</v>
+        <v>0.05</v>
       </c>
       <c r="C124" s="6">
-        <v>50000</v>
+        <v>3600</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="C125" s="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="C125" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B126" s="6">
+        <v>0.03</v>
       </c>
       <c r="C126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B127" s="6">
-        <v>3600</v>
+        <v>0</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B128" s="6">
-        <v>50000</v>
+        <v>3600</v>
       </c>
       <c r="C128" s="6"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="B129" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="6">
         <v>0.01</v>
       </c>
-      <c r="C129" s="6"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
       <c r="C130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>137</v>
-      </c>
-      <c r="B131" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="B131" s="6"/>
       <c r="C131" s="6"/>
-      <c r="D131" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="B132" s="6">
+        <v>0.05</v>
       </c>
       <c r="C132" s="6"/>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
       <c r="E132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
-      </c>
-      <c r="B133" s="6">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C133" s="6"/>
       <c r="E133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="6">
+        <v>1</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="E134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>37</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B138" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
+      <c r="B139" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="C141" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="6">
-        <v>0.99</v>
+        <v>0.15</v>
       </c>
       <c r="C142" s="6">
-        <v>0.99</v>
+        <v>0.15</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" s="6">
-        <v>1E-3</v>
+        <v>0.99</v>
       </c>
       <c r="C143" s="6">
-        <v>1E-3</v>
+        <v>0.99</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B144" s="6">
-        <v>100</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="C144" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B145" s="6">
+        <v>100</v>
+      </c>
+      <c r="C145" s="6"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>56</v>
-      </c>
-      <c r="B146" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C146" s="6">
-        <v>3600</v>
-      </c>
-      <c r="D146" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B147" s="6">
-        <v>50000</v>
+        <v>3600</v>
       </c>
       <c r="C147" s="6">
-        <v>50000</v>
+        <v>3600</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C148" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7">
         <v>1</v>
       </c>
-      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B156" s="6">
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="B157" s="6">
-        <v>0.71</v>
+        <v>2</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B158" s="6">
-        <v>0.21</v>
+        <v>0.99</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B159" s="6">
-        <v>0.99</v>
+        <v>1E-3</v>
       </c>
       <c r="C159" s="6">
-        <v>0.99</v>
+        <v>1E-3</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B160" s="6">
-        <v>1E-3</v>
+        <v>3600</v>
       </c>
       <c r="C160" s="6">
-        <v>1E-3</v>
+        <v>3600</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B161" s="6">
-        <v>0</v>
-      </c>
-      <c r="C161" s="6"/>
+        <v>50000</v>
+      </c>
+      <c r="C161" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="B162" s="6">
-        <v>48</v>
+        <v>0.05</v>
       </c>
       <c r="C162" s="6"/>
-      <c r="D162" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>41</v>
-      </c>
-      <c r="B163" s="6">
-        <v>0.05</v>
+        <v>183</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>79</v>
-      </c>
-      <c r="B164" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="C164" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B164" s="6"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>80</v>
-      </c>
-      <c r="B165" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C165" s="6"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>56</v>
-      </c>
-      <c r="B166" s="6">
-        <v>3600</v>
-      </c>
-      <c r="C166" s="6">
-        <v>3600</v>
-      </c>
-      <c r="D166" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" t="s">
-        <v>12</v>
-      </c>
+      <c r="B165" s="6"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>57</v>
-      </c>
-      <c r="B167" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C167" s="6">
-        <v>50000</v>
+      <c r="A167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
+      <c r="A168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C168" s="6"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>37</v>
-      </c>
-      <c r="B169" s="6"/>
+      <c r="A169" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="7">
+        <v>1</v>
+      </c>
       <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -2461,410 +2482,486 @@
       <c r="C170" s="6"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
+      <c r="B171" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>22</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="B172" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C173" s="6"/>
+      <c r="A173" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="6">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B174" s="7">
-        <v>1</v>
-      </c>
-      <c r="C174" s="6"/>
+      <c r="A174" t="s">
+        <v>82</v>
+      </c>
+      <c r="B174" s="6">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
+      <c r="A175" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="C175" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>16</v>
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="C176" s="6">
+        <v>1E-3</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B177" s="6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>84</v>
+      </c>
+      <c r="B178" s="6">
+        <v>48</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>41</v>
+      </c>
+      <c r="B179" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>79</v>
+      </c>
+      <c r="B180" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>80</v>
+      </c>
+      <c r="B181" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="6">
+        <v>3600</v>
+      </c>
+      <c r="C182" s="6">
+        <v>3600</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C183" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>37</v>
       </c>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B183" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="6"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B184" s="6">
-        <v>1</v>
-      </c>
-      <c r="C184" s="6"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>17</v>
-      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>147</v>
-      </c>
-      <c r="B187" s="6">
-        <v>100000</v>
-      </c>
+      <c r="B187" s="6"/>
       <c r="C187" s="6"/>
-      <c r="D187" t="s">
-        <v>148</v>
-      </c>
-      <c r="E187" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>150</v>
-      </c>
-      <c r="B188" s="6">
+        <v>22</v>
+      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="6"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B190" s="7">
+        <v>1</v>
+      </c>
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C188" s="6"/>
-      <c r="D188" t="s">
-        <v>148</v>
-      </c>
-      <c r="E188" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>152</v>
-      </c>
-      <c r="B189" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="C189" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="D189" t="s">
-        <v>5</v>
-      </c>
-      <c r="E189" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>154</v>
-      </c>
-      <c r="B190" s="6">
-        <v>10</v>
-      </c>
-      <c r="C190" s="6"/>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" s="6">
-        <v>10</v>
-      </c>
-      <c r="C191" s="6"/>
-      <c r="D191" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C192" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>118</v>
+      </c>
+      <c r="B193" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>37</v>
       </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B196" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="6"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B197" s="6">
-        <v>1</v>
-      </c>
-      <c r="C197" s="6"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>15</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>159</v>
-      </c>
       <c r="B200" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C200" s="6"/>
-      <c r="D200" t="s">
-        <v>148</v>
-      </c>
-      <c r="E200" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>161</v>
-      </c>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
-      <c r="D201" t="s">
-        <v>24</v>
-      </c>
-      <c r="E201" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>152</v>
-      </c>
-      <c r="B202" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="C202" s="6">
-        <v>0.03</v>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
-      </c>
-      <c r="E202" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B203" s="6">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="E203" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B204" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="E204" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>151</v>
+      </c>
+      <c r="B205" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C205" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>153</v>
+      </c>
+      <c r="B206" s="6">
+        <v>10</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>155</v>
+      </c>
+      <c r="B207" s="6">
+        <v>10</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>37</v>
       </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B209" s="2" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B212" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B213" s="6">
+        <v>1</v>
+      </c>
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>15</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C215" t="s">
         <v>16</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D215" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>158</v>
+      </c>
+      <c r="B216" s="6">
+        <v>18</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" t="s">
+        <v>147</v>
+      </c>
+      <c r="E216" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>160</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>151</v>
+      </c>
+      <c r="B218" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C218" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>162</v>
+      </c>
+      <c r="B219" s="6">
+        <v>10</v>
+      </c>
+      <c r="C219" s="6"/>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>164</v>
+      </c>
+      <c r="B220" s="6">
+        <v>10</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>15</v>
-      </c>
-      <c r="C221" t="s">
-        <v>16</v>
-      </c>
-      <c r="D221" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>37</v>
-      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
